--- a/willairwayvirtual34/app_data/License Key  for  wav Virtual Dispatcher.xlsx
+++ b/willairwayvirtual34/app_data/License Key  for  wav Virtual Dispatcher.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisStudioProj\wav web\willairwayvirtual34\willairwayvirtual34\app_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69823C3A-7CFD-44C9-A0BE-C1A9EC37AE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069D6F1-73F3-4AAD-9E1C-7B5477B67C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0E225D8-9EDE-49A4-ABBE-09BBDCCD5B2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F0E225D8-9EDE-49A4-ABBE-09BBDCCD5B2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="User " sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +35,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>&lt;###%-%%#%-#%%%&gt;</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>template do  not use</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Vacant</t>
   </si>
 </sst>
 </file>
@@ -51,12 +68,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,8 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,58 +417,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504EF9E6-4695-4E3A-A99D-AA9D6AAE4C0C}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0081691A-1A55-4193-9F58-BD61A8CDC82B}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AD275E-EF2B-40B2-A4D4-0BC0C94D5BB6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>2</v>
-      </c>
-      <c r="K1">
-        <v>2</v>
-      </c>
-      <c r="L1">
-        <v>4</v>
-      </c>
-      <c r="M1">
-        <f>(D1+E1+F1+H1+J1+K1+L1)/7</f>
-        <v>2.7142857142857144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338E6088-8884-4AC1-AE02-F1859CEF9EA0}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M4" si="0">(D2+E2+F2+H2+J2+K2+L2)/7</f>
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5" si="1">(D5+E5+F5+H5+J5+K5+L5)/7</f>
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E261A80-AEC9-48AF-9C8C-3ADC4B68F481}">
+          <x14:formula1>
+            <xm:f>'User '!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>N3:N1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>